--- a/biology/Botanique/Parc_maritime_départemental_Estérel-Théoule/Parc_maritime_départemental_Estérel-Théoule.xlsx
+++ b/biology/Botanique/Parc_maritime_départemental_Estérel-Théoule/Parc_maritime_départemental_Estérel-Théoule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_maritime_d%C3%A9partemental_Est%C3%A9rel-Th%C3%A9oule</t>
+          <t>Parc_maritime_départemental_Estérel-Théoule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc maritime départemental Estérel-Théoule est un parc maritime français situé dans le département des Alpes maritimes, à l'est du massif de l'Esterel. Il borde la commune de Théoule-sur-Mer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_maritime_d%C3%A9partemental_Est%C3%A9rel-Th%C3%A9oule</t>
+          <t>Parc_maritime_départemental_Estérel-Théoule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce site de 353 ha, géré par le Conservatoire du littoral, est implanté au droit de la commune de Théoule-sur-Mer. Il assure une continuité en mer du parc de la Pointe de l’Aiguille et du parc naturel départemental de l’Estérel[1],[2], vaste de 959 hectares, situé à cheval sur les communes de Mandelieu-La Napoule et Théoule-sur-Mer[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce site de 353 ha, géré par le Conservatoire du littoral, est implanté au droit de la commune de Théoule-sur-Mer. Il assure une continuité en mer du parc de la Pointe de l’Aiguille et du parc naturel départemental de l’Estérel vaste de 959 hectares, situé à cheval sur les communes de Mandelieu-La Napoule et Théoule-sur-Mer.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_maritime_d%C3%A9partemental_Est%C3%A9rel-Th%C3%A9oule</t>
+          <t>Parc_maritime_départemental_Estérel-Théoule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitats sous-marins
-Le littoral présente une mosaïque d’habitats propice à une importante biodiversité : petits fonds de roches et de galets, bancs de sable, herbiers de posidonie, algues coralligènes.
-Observation de la faune
-Le sentier sous-marin de la Pointe de l’Aiguille, créé en 2006, est accessible de mi-juin à mi-septembre.
-Il permet l’observation de la faune et de la flore des petits fonds grâce à des plaquettes pédagogiques immergeables disponibles à l’Office de tourisme[3]. 
+          <t>Habitats sous-marins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le littoral présente une mosaïque d’habitats propice à une importante biodiversité : petits fonds de roches et de galets, bancs de sable, herbiers de posidonie, algues coralligènes.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_maritime_d%C3%A9partemental_Est%C3%A9rel-Th%C3%A9oule</t>
+          <t>Parc_maritime_départemental_Estérel-Théoule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Centres d'intérêt</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Observation de la faune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sentier sous-marin de la Pointe de l’Aiguille, créé en 2006, est accessible de mi-juin à mi-septembre.
+Il permet l’observation de la faune et de la flore des petits fonds grâce à des plaquettes pédagogiques immergeables disponibles à l’Office de tourisme. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_maritime_départemental_Estérel-Théoule</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_maritime_d%C3%A9partemental_Est%C3%A9rel-Th%C3%A9oule</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Mouillages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afin de limiter les dégradations liées aux ancrages répétés, le département des Alpes-Maritimes a aménagé deux mouillages écologiques réservés aux clubs de plongée, dans le cadre du Plan Départemental des Espaces, Sites et Itinéraires (PDESI)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin de limiter les dégradations liées aux ancrages répétés, le département des Alpes-Maritimes a aménagé deux mouillages écologiques réservés aux clubs de plongée, dans le cadre du Plan Départemental des Espaces, Sites et Itinéraires (PDESI).
 .
 </t>
         </is>
